--- a/app/assets/tables/tablaVC_mine.xlsx
+++ b/app/assets/tables/tablaVC_mine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amparoquiroz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amparoquiroz/Desktop/unlockEd/app/app/assets/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8869BA-2C98-E346-845D-4908AF593C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49939A0-FF95-8E46-9164-A572451731E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{58651EC4-3B7A-6B4E-B953-DC2C51F7F272}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{58651EC4-3B7A-6B4E-B953-DC2C51F7F272}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -70554,8 +70554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C67100D-A31A-5B4B-B1BF-9CD0E1FB163E}">
   <dimension ref="A1:F628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" zoomScale="127" workbookViewId="0">
-      <selection activeCell="A563" sqref="A563:B566"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/assets/tables/tablaVC_mine.xlsx
+++ b/app/assets/tables/tablaVC_mine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amparoquiroz/Desktop/unlockEd/app/app/assets/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49939A0-FF95-8E46-9164-A572451731E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967CE3DE-AB18-4F41-BFC8-6C5845960BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{58651EC4-3B7A-6B4E-B953-DC2C51F7F272}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{58651EC4-3B7A-6B4E-B953-DC2C51F7F272}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -70555,7 +70555,7 @@
   <dimension ref="A1:F628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
